--- a/Cards/RoleData/Role-Front.xlsx
+++ b/Cards/RoleData/Role-Front.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\ActionData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\RoleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DB92AC-73B6-4812-BA8E-08A4986F9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA67DEB-174F-475C-9A57-8ED585256169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
   </bookViews>
@@ -36,12 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>@Image</t>
+  </si>
+  <si>
+    <t>@Health_1</t>
+  </si>
+  <si>
+    <t>@Health_2</t>
+  </si>
+  <si>
+    <t>@Health_3</t>
+  </si>
+  <si>
+    <t>@Health_4</t>
+  </si>
+  <si>
+    <t>@KingEffectIcon</t>
+  </si>
+  <si>
+    <t>KingEffectText</t>
+  </si>
+  <si>
+    <t>AbilityText</t>
   </si>
 </sst>
 </file>
@@ -433,49 +454,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81838662-B590-45E0-82FF-5E356D98D8D1}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="3" max="6" width="19" customWidth="1"/>
+    <col min="7" max="13" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Cards/RoleData/Role-Front.xlsx
+++ b/Cards/RoleData/Role-Front.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\RoleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA67DEB-174F-475C-9A57-8ED585256169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B137C37-3285-4E22-8D53-3B8578756DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -62,7 +62,42 @@
     <t>KingEffectText</t>
   </si>
   <si>
-    <t>AbilityText</t>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Traitor</t>
+  </si>
+  <si>
+    <t>Loyalist</t>
+  </si>
+  <si>
+    <t>King.ai</t>
+  </si>
+  <si>
+    <t>Traitor.ai</t>
+  </si>
+  <si>
+    <t>Loyalist.ai</t>
+  </si>
+  <si>
+    <t>Heart.ai</t>
+  </si>
+  <si>
+    <t>Damage.ai</t>
+  </si>
+  <si>
+    <t>Protection.ai</t>
+  </si>
+  <si>
+    <t>x2 to king, if alive.</t>
+  </si>
+  <si>
+    <t>FavourText</t>
+  </si>
+  <si>
+    <t>Once per game:
+- Peek at a players role OR
+- Move a Delegate between Courts</t>
   </si>
 </sst>
 </file>
@@ -112,13 +147,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81838662-B590-45E0-82FF-5E356D98D8D1}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +509,10 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="6" width="19" customWidth="1"/>
-    <col min="7" max="13" width="32.85546875" customWidth="1"/>
+    <col min="7" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,30 +538,84 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cards/RoleData/Role-Front.xlsx
+++ b/Cards/RoleData/Role-Front.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\RoleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B137C37-3285-4E22-8D53-3B8578756DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2443A1A-6FA8-4779-9E45-4B3A6FEB8ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -98,6 +98,12 @@
     <t>Once per game:
 - Peek at a players role OR
 - Move a Delegate between Courts</t>
+  </si>
+  <si>
+    <t>VictoryText</t>
+  </si>
+  <si>
+    <t>Wins if alive.</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81838662-B590-45E0-82FF-5E356D98D8D1}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,9 +516,10 @@
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="6" width="19" customWidth="1"/>
     <col min="7" max="9" width="32.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,16 +539,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -560,13 +570,16 @@
       <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -581,17 +594,18 @@
         <v>14</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -606,13 +620,14 @@
         <v>14</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Cards/RoleData/Role-Front.xlsx
+++ b/Cards/RoleData/Role-Front.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\RoleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2443A1A-6FA8-4779-9E45-4B3A6FEB8ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A4EC52-4DF5-489E-B4DB-270403242108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
   </bookViews>
@@ -95,15 +95,13 @@
     <t>FavourText</t>
   </si>
   <si>
-    <t>Once per game:
-- Peek at a players role OR
-- Move a Delegate between Courts</t>
-  </si>
-  <si>
     <t>VictoryText</t>
   </si>
   <si>
     <t>Wins if alive.</t>
+  </si>
+  <si>
+    <t>Once per game you may 'Peek' at a players role OR 'Move' a Delegate between Courts</t>
   </si>
 </sst>
 </file>
@@ -507,7 +505,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -571,12 +569,12 @@
         <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/RoleData/Role-Front.xlsx
+++ b/Cards/RoleData/Role-Front.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\RoleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A4EC52-4DF5-489E-B4DB-270403242108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5117D-B7DA-446A-ACFD-283F536F5088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -56,12 +56,6 @@
     <t>@Health_4</t>
   </si>
   <si>
-    <t>@KingEffectIcon</t>
-  </si>
-  <si>
-    <t>KingEffectText</t>
-  </si>
-  <si>
     <t>King</t>
   </si>
   <si>
@@ -83,25 +77,22 @@
     <t>Heart.ai</t>
   </si>
   <si>
-    <t>Damage.ai</t>
-  </si>
-  <si>
-    <t>Protection.ai</t>
-  </si>
-  <si>
-    <t>x2 to king, if alive.</t>
-  </si>
-  <si>
     <t>FavourText</t>
   </si>
   <si>
-    <t>VictoryText</t>
-  </si>
-  <si>
     <t>Wins if alive.</t>
   </si>
   <si>
     <t>Once per game you may 'Peek' at a players role OR 'Move' a Delegate between Courts</t>
+  </si>
+  <si>
+    <t>+2 HP to king, if alive.</t>
+  </si>
+  <si>
+    <t>-2 HP to king, if alive.</t>
+  </si>
+  <si>
+    <t>GoalText</t>
   </si>
 </sst>
 </file>
@@ -151,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81838662-B590-45E0-82FF-5E356D98D8D1}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,11 +507,11 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="6" width="19" customWidth="1"/>
-    <col min="7" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,96 +531,80 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>21</v>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/RoleData/Role-Front.xlsx
+++ b/Cards/RoleData/Role-Front.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\RoleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5117D-B7DA-446A-ACFD-283F536F5088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FE79F3-BEB3-4BC2-A42F-EC3A948CD4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
+    <workbookView xWindow="-28920" yWindow="-1290" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -77,15 +77,9 @@
     <t>Heart.ai</t>
   </si>
   <si>
-    <t>FavourText</t>
-  </si>
-  <si>
     <t>Wins if alive.</t>
   </si>
   <si>
-    <t>Once per game you may 'Peek' at a players role OR 'Move' a Delegate between Courts</t>
-  </si>
-  <si>
     <t>+2 HP to king, if alive.</t>
   </si>
   <si>
@@ -93,6 +87,15 @@
   </si>
   <si>
     <t>GoalText</t>
+  </si>
+  <si>
+    <t>HPText</t>
+  </si>
+  <si>
+    <t>4 HP</t>
+  </si>
+  <si>
+    <t>2 HP</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,9 +158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,8 +507,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="7" max="8" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -531,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -557,10 +556,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -571,15 +570,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>15</v>
@@ -593,18 +591,17 @@
         <v>11</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/RoleData/Role-Front.xlsx
+++ b/Cards/RoleData/Role-Front.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tech\Github Repos\TEAM-TEAM-TraitorCards\Cards\RoleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FE79F3-BEB3-4BC2-A42F-EC3A948CD4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB19B785-10D7-4CD0-A2E9-983760D68C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1290" windowWidth="29040" windowHeight="15840" xr2:uid="{1E0E38A4-A720-4B05-94AE-F55473173966}"/>
   </bookViews>
@@ -65,15 +65,6 @@
     <t>Loyalist</t>
   </si>
   <si>
-    <t>King.ai</t>
-  </si>
-  <si>
-    <t>Traitor.ai</t>
-  </si>
-  <si>
-    <t>Loyalist.ai</t>
-  </si>
-  <si>
     <t>Heart.ai</t>
   </si>
   <si>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>2 HP</t>
+  </si>
+  <si>
+    <t>King.png</t>
+  </si>
+  <si>
+    <t>Traitor.png</t>
+  </si>
+  <si>
+    <t>Loyalist.png</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -541,25 +541,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -567,20 +567,20 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -588,20 +588,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
